--- a/data/models.xlsx
+++ b/data/models.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Delta</t>
-  </si>
-  <si>
-    <t>Full model with univariate outliers removed</t>
   </si>
 </sst>
 </file>
@@ -380,7 +377,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
